--- a/03 绩效报告/丽泽项目代码学习进度表.xlsx
+++ b/03 绩效报告/丽泽项目代码学习进度表.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="代码学习进度" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1463,7 +1463,7 @@
         <v>273</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>273</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.4">
@@ -1509,7 +1509,7 @@
         <v>273</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>273</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1555,7 +1555,7 @@
         <v>273</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1578,7 +1578,7 @@
         <v>273</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
         <v>273</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
         <v>273</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1647,7 +1647,7 @@
         <v>273</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
         <v>202</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>274</v>
@@ -5209,7 +5209,7 @@
         <v>204</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>274</v>
@@ -5232,7 +5232,7 @@
         <v>206</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>274</v>
@@ -5255,7 +5255,7 @@
         <v>207</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H167" s="3" t="s">
         <v>274</v>
@@ -5278,7 +5278,7 @@
         <v>209</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>274</v>
@@ -5301,7 +5301,7 @@
         <v>210</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H169" s="3" t="s">
         <v>274</v>
@@ -5324,7 +5324,7 @@
         <v>212</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>274</v>
@@ -5347,7 +5347,7 @@
         <v>213</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H171" s="3" t="s">
         <v>274</v>
@@ -5370,7 +5370,7 @@
         <v>216</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>274</v>
@@ -5393,7 +5393,7 @@
         <v>217</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>274</v>
@@ -5416,7 +5416,7 @@
         <v>218</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>274</v>
@@ -5439,7 +5439,7 @@
         <v>219</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>274</v>
@@ -5462,7 +5462,7 @@
         <v>221</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>274</v>
@@ -5485,7 +5485,7 @@
         <v>222</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>274</v>
@@ -5508,7 +5508,7 @@
         <v>223</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>274</v>
@@ -5531,7 +5531,7 @@
         <v>224</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>274</v>
@@ -5554,7 +5554,7 @@
         <v>225</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>274</v>
@@ -5577,7 +5577,7 @@
         <v>226</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>274</v>
@@ -5600,7 +5600,7 @@
         <v>227</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>274</v>
@@ -5623,7 +5623,7 @@
         <v>228</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>274</v>
@@ -5646,7 +5646,7 @@
         <v>229</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H184" s="3" t="s">
         <v>274</v>
@@ -5669,7 +5669,7 @@
         <v>31</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H185" s="3" t="s">
         <v>274</v>
@@ -5692,7 +5692,7 @@
         <v>31</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>274</v>
@@ -5715,7 +5715,7 @@
         <v>31</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>274</v>
@@ -5738,7 +5738,7 @@
         <v>31</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>274</v>
@@ -5761,7 +5761,7 @@
         <v>236</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>274</v>
@@ -5784,7 +5784,7 @@
         <v>237</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>274</v>
@@ -5807,7 +5807,7 @@
         <v>238</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H191" s="3" t="s">
         <v>274</v>
@@ -5830,7 +5830,7 @@
         <v>239</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>274</v>
@@ -5853,7 +5853,7 @@
         <v>240</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H193" s="3" t="s">
         <v>274</v>
@@ -5876,7 +5876,7 @@
         <v>241</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>274</v>
@@ -5899,7 +5899,7 @@
         <v>31</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>274</v>
@@ -5922,7 +5922,7 @@
         <v>31</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>274</v>
@@ -5945,7 +5945,7 @@
         <v>31</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H197" s="3" t="s">
         <v>274</v>
@@ -5968,7 +5968,7 @@
         <v>31</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>274</v>
@@ -5991,7 +5991,7 @@
         <v>31</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H199" s="3" t="s">
         <v>274</v>
@@ -6014,7 +6014,7 @@
         <v>251</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>274</v>
@@ -6037,7 +6037,7 @@
         <v>253</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>274</v>
@@ -6060,7 +6060,7 @@
         <v>254</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>274</v>
@@ -6083,7 +6083,7 @@
         <v>255</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>274</v>
@@ -6106,7 +6106,7 @@
         <v>256</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>274</v>
@@ -6129,7 +6129,7 @@
         <v>257</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>274</v>
@@ -6152,7 +6152,7 @@
         <v>258</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>274</v>
@@ -6175,7 +6175,7 @@
         <v>259</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H207" s="3" t="s">
         <v>274</v>
@@ -6198,7 +6198,7 @@
         <v>260</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>274</v>
@@ -6221,7 +6221,7 @@
         <v>261</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H209" s="3" t="s">
         <v>274</v>
@@ -6244,7 +6244,7 @@
         <v>262</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>274</v>
@@ -6260,11 +6260,11 @@
       <c r="F211" s="10"/>
       <c r="G211" s="10">
         <f>COUNTIF(G2:G210,"已完成")</f>
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="H211" s="10">
         <f>COUNTIF(H2:H210,"已完成")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.3">
@@ -6292,11 +6292,11 @@
       <c r="F213" s="11"/>
       <c r="G213" s="12">
         <f>G211/G212</f>
-        <v>0.77511961722488043</v>
-      </c>
-      <c r="H213" s="11">
+        <v>1</v>
+      </c>
+      <c r="H213" s="12">
         <f>H211/H212</f>
-        <v>0</v>
+        <v>4.3062200956937802E-2</v>
       </c>
     </row>
   </sheetData>

--- a/03 绩效报告/丽泽项目代码学习进度表.xlsx
+++ b/03 绩效报告/丽泽项目代码学习进度表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="代码学习进度" sheetId="1" r:id="rId1"/>
+    <sheet name="API学习计划" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="308">
   <si>
     <t>（一）基础功能</t>
   </si>
@@ -643,7 +644,7 @@
   </si>
   <si>
     <t>8.园区食堂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>（五）企业服务</t>
@@ -818,18 +819,18 @@
   </si>
   <si>
     <t>1.服务商App功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.1.1 信息录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.服务商App功能</t>
   </si>
   <si>
     <t>1.1.2 选购商品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.1.3 提交订单/支付</t>
@@ -860,64 +861,191 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>已完成合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI学习状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>后台学习状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户充值，消费的流水账，跟银行存折类似，查询参数可指定交易类型或所有类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额查询</t>
+  </si>
+  <si>
+    <t>查询一卡通内余额</t>
+  </si>
+  <si>
+    <t>一卡通状态，卡状态与消费账户状态</t>
+  </si>
+  <si>
+    <t>实时查询一卡通状态，有效或者失效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸机二维码生成规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要闸机二维码规则，用于从App端生成二维码，同时二维码需要有时效控制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂失</t>
+  </si>
+  <si>
+    <t>可更新一卡通的状态，此卡的状态变成无效，同时产生卡事件</t>
+  </si>
+  <si>
+    <t>解挂</t>
+  </si>
+  <si>
+    <t>可更新一卡通的状态，此卡的状态变成有效，同时产生卡事件</t>
+  </si>
+  <si>
+    <t>账户变动通知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一卡通某用户的账户余额变了之后，会调用我们给定的一个url，这样丽泽智慧平台系统就能收到通知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉一卡通系统，给某用户账户增加XX元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额更新（充值）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>用户通过手机号注册，输入手机号后系统会发送验证码进行验证，用户设置密码提交后完成注册</t>
+  </si>
+  <si>
+    <t>安全机制，敏感数据加密</t>
+  </si>
+  <si>
+    <t>1、 由服务端生成一套RSA公钥/私钥，用于保护Token的传输，公钥给APP 公开</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>2、 由APP客户端以生成随机数的方法生成Token，用于签名和对敏感数据加密（如密码、帐号等）；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>3、 APP端请求服务之前，将生成的Token用RSA公钥加密 ，随用户登录及Token注册方法（用户ID+ 用户密码 + Token）传给服务端。服务端用RSA私钥对Token进行解码，获得Token值后再用Token解密用户密码，再进行后台认证和Token注册。Token的有效期默认为2个小时（可配置），两个小时后，Token失效，APP端需再注册新的Token。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名</t>
+  </si>
+  <si>
+    <t>学习计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户变动通知接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>达实编写调用接口及处理回调的代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额更新（消费）接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>达实系统提供接口给丽泽系统
+1）丽泽更新自己数据库；
+2）丽泽调用达实的接口更新达实账户余额；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽泽编写调用对方接口及处理回调的代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -955,8 +1083,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,8 +1119,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1021,14 +1177,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1037,7 +1224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1047,17 +1234,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1407,7 +1630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1670,7 +1895,7 @@
         <v>273</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1693,7 +1918,7 @@
         <v>273</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1716,7 +1941,7 @@
         <v>273</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1739,7 +1964,7 @@
         <v>273</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1762,7 +1987,7 @@
         <v>273</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1785,7 +2010,7 @@
         <v>273</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1808,7 +2033,7 @@
         <v>273</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.4">
@@ -1831,7 +2056,7 @@
         <v>273</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1854,7 +2079,7 @@
         <v>273</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -1877,7 +2102,7 @@
         <v>273</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -1900,7 +2125,7 @@
         <v>273</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1923,7 +2148,7 @@
         <v>273</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -1946,7 +2171,7 @@
         <v>273</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -1969,7 +2194,7 @@
         <v>273</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -1992,7 +2217,7 @@
         <v>273</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -2015,7 +2240,7 @@
         <v>273</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -2038,7 +2263,7 @@
         <v>273</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -2061,7 +2286,7 @@
         <v>273</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -2084,7 +2309,7 @@
         <v>273</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -2107,7 +2332,7 @@
         <v>273</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -2130,7 +2355,7 @@
         <v>273</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -2153,7 +2378,7 @@
         <v>273</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.4">
@@ -2176,7 +2401,7 @@
         <v>273</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -2199,7 +2424,7 @@
         <v>273</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
@@ -2222,7 +2447,7 @@
         <v>273</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -2245,7 +2470,7 @@
         <v>273</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -2268,7 +2493,7 @@
         <v>273</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
@@ -2291,7 +2516,7 @@
         <v>273</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -2314,7 +2539,7 @@
         <v>273</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -2337,7 +2562,7 @@
         <v>273</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -2360,7 +2585,7 @@
         <v>273</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -2383,7 +2608,7 @@
         <v>273</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
@@ -2406,7 +2631,7 @@
         <v>273</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
@@ -2429,7 +2654,7 @@
         <v>273</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
@@ -2452,7 +2677,7 @@
         <v>273</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
@@ -2475,7 +2700,7 @@
         <v>273</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
@@ -2498,7 +2723,7 @@
         <v>273</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
@@ -2521,7 +2746,7 @@
         <v>273</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
@@ -2544,7 +2769,7 @@
         <v>273</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
@@ -2567,7 +2792,7 @@
         <v>273</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
@@ -2590,7 +2815,7 @@
         <v>273</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
@@ -2613,7 +2838,7 @@
         <v>273</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
@@ -2636,7 +2861,7 @@
         <v>273</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
@@ -2659,7 +2884,7 @@
         <v>273</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
@@ -2682,7 +2907,7 @@
         <v>273</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
@@ -2705,7 +2930,7 @@
         <v>273</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
@@ -2728,7 +2953,7 @@
         <v>273</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
@@ -2751,7 +2976,7 @@
         <v>273</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
@@ -2774,7 +2999,7 @@
         <v>273</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
@@ -2797,7 +3022,7 @@
         <v>273</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
@@ -6264,7 +6489,7 @@
       </c>
       <c r="H211" s="10">
         <f>COUNTIF(H2:H210,"已完成")</f>
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.3">
@@ -6296,12 +6521,189 @@
       </c>
       <c r="H213" s="12">
         <f>H211/H212</f>
-        <v>4.3062200956937802E-2</v>
+        <v>0.28229665071770332</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="14"/>
+    <col min="2" max="2" width="32.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="2:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/03 绩效报告/丽泽项目代码学习进度表.xlsx
+++ b/03 绩效报告/丽泽项目代码学习进度表.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="代码学习进度" sheetId="1" r:id="rId1"/>
     <sheet name="API学习计划" sheetId="2" r:id="rId2"/>
+    <sheet name="开发计划" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="337">
   <si>
     <t>（一）基础功能</t>
   </si>
@@ -908,24 +909,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户充值，消费的流水账，跟银行存折类似，查询参数可指定交易类型或所有类型</t>
+    <t>学习计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token注册</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>余额查询</t>
+    <t>Token值注册</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户通过手机号注册，输入手机号后系统会发送验证码进行验证，用户设置密码提交后完成注册</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一卡通充值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂失</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可更新一卡通的状态，此卡的状态变成无效，同时产生卡事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解挂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可更新一卡通的状态，此卡的状态变成有效，同时产生卡事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值数据查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询自己的充值明细</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费数据查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询自己的消费数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询一卡通的挂失、解挂、补卡记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一卡通余额查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>查询一卡通内余额</t>
-  </si>
-  <si>
-    <t>一卡通状态，卡状态与消费账户状态</t>
-  </si>
-  <si>
-    <t>实时查询一卡通状态，有效或者失效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>闸机二维码生成规则</t>
+    <t>二维码开门</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -933,64 +993,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>挂失</t>
-  </si>
-  <si>
-    <t>可更新一卡通的状态，此卡的状态变成无效，同时产生卡事件</t>
-  </si>
-  <si>
-    <t>解挂</t>
-  </si>
-  <si>
-    <t>可更新一卡通的状态，此卡的状态变成有效，同时产生卡事件</t>
-  </si>
-  <si>
-    <t>账户变动通知</t>
+    <t>访客邀请</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一卡通某用户的账户余额变了之后，会调用我们给定的一个url，这样丽泽智慧平台系统就能收到通知</t>
+    <t>根据访客信息获取访客开门的二维码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>告诉一卡通系统，给某用户账户增加XX元</t>
+    <t>余额更新（消费）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>余额更新（充值）</t>
+    <t>告诉一卡通系统，给某用户账户减少XX元</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>用户注册</t>
-  </si>
-  <si>
-    <t>用户通过手机号注册，输入手机号后系统会发送验证码进行验证，用户设置密码提交后完成注册</t>
-  </si>
-  <si>
-    <t>安全机制，敏感数据加密</t>
-  </si>
-  <si>
-    <t>1、 由服务端生成一套RSA公钥/私钥，用于保护Token的传输，公钥给APP 公开</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>2、 由APP客户端以生成随机数的方法生成Token，用于签名和对敏感数据加密（如密码、帐号等）；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>3、 APP端请求服务之前，将生成的Token用RSA公钥加密 ，随用户登录及Token注册方法（用户ID+ 用户密码 + Token）传给服务端。服务端用RSA私钥对Token进行解码，获得Token值后再用Token解密用户密码，再进行后台认证和Token注册。Token的有效期默认为2个小时（可配置），两个小时后，Token失效，APP端需再注册新的Token。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名</t>
-  </si>
-  <si>
-    <t>学习计划</t>
+    <t>接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -998,41 +1021,210 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>接口说明</t>
+    <t>备注</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分工作内容随着需求工作和设计工作的进展可能产生变动。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习计划</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习人员</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、物业服务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>交易明细</t>
+    <t>物业报修</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账户变动通知接口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>达实编写调用接口及处理回调的代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额更新（消费）接口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>达实系统提供接口给丽泽系统
-1）丽泽更新自己数据库；
-2）丽泽调用达实的接口更新达实账户余额；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽泽编写调用对方接口及处理回调的代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>访客管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉建议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电抄表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品放行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋交接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入驻/退租申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>园区巴士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.物业报修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已受理</t>
+    </r>
+  </si>
+  <si>
+    <t>用户发起维修申请</t>
+  </si>
+  <si>
+    <r>
+      <t>7-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接单或派单</t>
+    </r>
+  </si>
+  <si>
+    <t>工程经理受理企业的维修的申请</t>
+  </si>
+  <si>
+    <r>
+      <t>7-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务接单</t>
+    </r>
+  </si>
+  <si>
+    <t>维修人员接单</t>
+  </si>
+  <si>
+    <r>
+      <t>7-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上门检修</t>
+    </r>
+  </si>
+  <si>
+    <t>维修人员上门检修，确认难易度</t>
+  </si>
+  <si>
+    <r>
+      <t>7-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工程经理审批</t>
+    </r>
+  </si>
+  <si>
+    <t>收费的场合联系工程经理确认是否施工</t>
+  </si>
+  <si>
+    <t>维修人员施工，并输入处理结果</t>
+  </si>
+  <si>
+    <t>维修完成后推送消息通知企业客户</t>
+  </si>
+  <si>
+    <r>
+      <t>7-6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维修施工</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理完毕</t>
+    </r>
+  </si>
+  <si>
+    <t>项磊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,8 +1297,46 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,8 +1355,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1184,10 +1426,45 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1199,14 +1476,14 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1214,8 +1491,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1243,46 +1523,108 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1630,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H213"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2757,7 +3099,7 @@
         <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>68</v>
+        <v>321</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>31</v>
@@ -4043,9 +4385,6 @@
       </c>
       <c r="C105" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>130</v>
@@ -6533,177 +6872,603 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="14"/>
-    <col min="2" max="2" width="32.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.9140625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="14"/>
+    <col min="1" max="1" width="8.6640625" style="13"/>
+    <col min="2" max="2" width="19.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="87.08203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D2" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" s="19"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="2:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="5.08203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.58203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="21.08203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="21.08203125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="29"/>
+      <c r="C5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="29"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="29"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="29"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="29"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="29"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="29"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="29"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="29"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="29"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="29"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="29"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="29"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B18" s="29"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="29"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="29"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="29"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B22" s="29"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="29"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B24" s="27"/>
+      <c r="C24" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="29"/>
+      <c r="C25" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
+      <c r="C26" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B27" s="29"/>
+      <c r="C27" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="44"/>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B28" s="27"/>
+      <c r="C28" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="44"/>
+    </row>
+    <row r="29" spans="2:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B29" s="29"/>
+      <c r="C29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="44"/>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="27"/>
+      <c r="C30" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="44"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="29"/>
+      <c r="C31" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="44"/>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="27"/>
+      <c r="C32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="44"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="44"/>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="44"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="44"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="44"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="44"/>
+    </row>
+    <row r="41" spans="2:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="44"/>
+    </row>
+    <row r="42" spans="2:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="44"/>
+    </row>
+    <row r="43" spans="2:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="44"/>
+    </row>
+    <row r="44" spans="2:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="44"/>
+    </row>
+    <row r="45" spans="2:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="2:6" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.74" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>